--- a/ExcelConnectorDB/Excel.xlsx
+++ b/ExcelConnectorDB/Excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtas\Documents\GitHub\Python\ExcelConnectorDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtas\Documents\GitHub\Python\Python\ExcelConnectorDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>asdas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>Ilość</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Cegła</t>
+  </si>
+  <si>
+    <t>Producent</t>
+  </si>
+  <si>
+    <t>Pustak</t>
+  </si>
+  <si>
+    <t>Cegłą</t>
+  </si>
+  <si>
+    <t>Regips</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>SKSM</t>
+  </si>
+  <si>
+    <t>Drucik</t>
   </si>
 </sst>
 </file>
@@ -59,10 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -365,21 +396,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
         <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>534</v>
+      </c>
+      <c r="D5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -391,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>

--- a/ExcelConnectorDB/Excel.xlsx
+++ b/ExcelConnectorDB/Excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtas\Documents\GitHub\Python\Python\ExcelConnectorDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbachinski\Documents\GitHub\Python\ExcelConnectorDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1585B440-24B2-4DB4-AA82-AB7113B292B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300"/>
+    <workbookView xWindow="17970" yWindow="570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,11 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -395,11 +400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +433,7 @@
       <c r="C2" s="3">
         <v>22</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>14</v>
       </c>
     </row>
@@ -494,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -514,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ExcelConnectorDB/Excel.xlsx
+++ b/ExcelConnectorDB/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbachinski\Documents\GitHub\Python\ExcelConnectorDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1585B440-24B2-4DB4-AA82-AB7113B292B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7530634-8BAE-4946-B959-D87ECF3D8AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Nazwa</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Pustak</t>
-  </si>
-  <si>
-    <t>Cegłą</t>
   </si>
   <si>
     <t>Regips</t>
@@ -61,9 +58,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,12 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -404,7 +397,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,12 +421,12 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>22</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>14</v>
       </c>
     </row>
@@ -442,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>21</v>
@@ -453,10 +446,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>32</v>
@@ -467,10 +460,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>534</v>
@@ -481,10 +474,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>23</v>

--- a/ExcelConnectorDB/Excel.xlsx
+++ b/ExcelConnectorDB/Excel.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbachinski\Documents\GitHub\Python\ExcelConnectorDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtas\Documents\GitHub\Python\Python\ExcelConnectorDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7530634-8BAE-4946-B959-D87ECF3D8AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="2835" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz2" sheetId="3" r:id="rId3"/>
+    <sheet name="Materiały" sheetId="1" r:id="rId1"/>
+    <sheet name="Pandziocha" sheetId="4" r:id="rId2"/>
+    <sheet name="Wkrety" sheetId="2" r:id="rId3"/>
+    <sheet name="Instrumenty" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t>Nazwa</t>
   </si>
@@ -52,12 +52,84 @@
   </si>
   <si>
     <t>Drucik</t>
+  </si>
+  <si>
+    <t>Gitara</t>
+  </si>
+  <si>
+    <t>Ukulele</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karp</t>
+  </si>
+  <si>
+    <t>Majonez</t>
+  </si>
+  <si>
+    <t>Cebula</t>
+  </si>
+  <si>
+    <t>Tortila</t>
+  </si>
+  <si>
+    <t>Kurczak</t>
+  </si>
+  <si>
+    <t>Ziemniak</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Gibsolele</t>
+  </si>
+  <si>
+    <t>Fender</t>
+  </si>
+  <si>
+    <t>Staw</t>
+  </si>
+  <si>
+    <t>Natura</t>
+  </si>
+  <si>
+    <t>Placki</t>
+  </si>
+  <si>
+    <t>Drobpol</t>
+  </si>
+  <si>
+    <t>Zawiasy</t>
+  </si>
+  <si>
+    <t>Gwoździe</t>
+  </si>
+  <si>
+    <t>Wkręt</t>
+  </si>
+  <si>
+    <t>Klimas</t>
+  </si>
+  <si>
+    <t>DrewPol</t>
+  </si>
+  <si>
+    <t>Kątownik</t>
+  </si>
+  <si>
+    <t>Wentylator</t>
+  </si>
+  <si>
+    <t>WewLex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,11 +465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,18 +564,363 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>222</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>453</v>
+      </c>
+      <c r="D7" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>234</v>
+      </c>
+      <c r="D10" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>453</v>
+      </c>
+      <c r="D14" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>234</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3">
+        <v>453</v>
+      </c>
+      <c r="D21" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3">
+        <v>234</v>
+      </c>
+      <c r="D24" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -512,15 +929,269 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3">
+        <v>534</v>
+      </c>
+      <c r="D5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>453</v>
+      </c>
+      <c r="D7" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>234</v>
+      </c>
+      <c r="D10" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>